--- a/sampledata/CBS.xlsx
+++ b/sampledata/CBS.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">entry</t>
   </si>
   <si>
-    <t xml:space="preserve">smiles</t>
+    <t xml:space="preserve">SMILES</t>
   </si>
   <si>
     <t xml:space="preserve">ee.</t>
@@ -3350,8 +3350,8 @@
   </sheetPr>
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/sampledata/CBS.xlsx
+++ b/sampledata/CBS.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac_poclab/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E211635C-5D4F-784D-BB60-031710D0C97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57593ABA-BC48-1F40-97F0-337C98302B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="2360" windowWidth="29380" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="1580" windowWidth="29380" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - cbs_hand_read_0116" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="188">
   <si>
     <t>entry</t>
   </si>
@@ -2926,13 +2925,57 @@
   <si>
     <t>C(=O)(c1ccc(Cl)c(Cl)c1)CCN(C)C</t>
     <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>FC(F)(F)C(=O)c1ccccc1</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/0040-4039(93)89012-F </t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Chem. Commun., 2010, 46, 8624-8626. corrected to</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t>Tetrahedron letters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> 31.5 (1990): 611-614.</t>
+    </r>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)C(C)C</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t>Molecular Asymmetry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 10.1‐2 (1998): 120-124.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
@@ -3047,6 +3090,32 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3154,7 +3223,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3240,6 +3309,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3648,10 +3726,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK101"/>
+  <dimension ref="A1:AMK103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -4652,8 +4730,8 @@
       <c r="G31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>50</v>
+      <c r="H31" s="29" t="s">
+        <v>183</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>61</v>
@@ -5762,7 +5840,7 @@
         <v>20</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" ref="E66:E101" si="4">50+C66/2</f>
+        <f t="shared" ref="E66:E103" si="4">50+C66/2</f>
         <v>3</v>
       </c>
       <c r="F66" s="7">
@@ -6903,6 +6981,59 @@
       </c>
       <c r="J101" s="27" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="14">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="1">
+        <v>90</v>
+      </c>
+      <c r="D102" s="1">
+        <v>30</v>
+      </c>
+      <c r="E102" s="7">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="F102" s="1">
+        <f>273+D102</f>
+        <v>303</v>
+      </c>
+      <c r="I102" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="18">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" s="1">
+        <v>-24</v>
+      </c>
+      <c r="D103" s="1">
+        <v>20</v>
+      </c>
+      <c r="E103" s="7">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="F103" s="1">
+        <f>273+D103</f>
+        <v>293</v>
+      </c>
+      <c r="I103" s="30" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/CBS.xlsx
+++ b/sampledata/CBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac_poclab/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57593ABA-BC48-1F40-97F0-337C98302B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CE9548-ED0C-244B-A593-F0C570E2B8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="1580" windowWidth="29380" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="186">
   <si>
     <t>entry</t>
   </si>
@@ -2935,47 +2935,19 @@
     <phoneticPr fontId="15"/>
   </si>
   <si>
-    <t>Chem. Commun., 2010, 46, 8624-8626. corrected to</t>
+    <t>Chem. Commun., 2010, 46, 8624-8626.</t>
     <phoneticPr fontId="15"/>
   </si>
   <si>
-    <r>
-      <t>Tetrahedron letters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> 31.5 (1990): 611-614.</t>
-    </r>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)C(C)C</t>
+    <t>2,4,6-F-Ph-CBS</t>
     <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <r>
-      <t>Molecular Asymmetry</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 10.1‐2 (1998): 120-124.</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
@@ -3096,25 +3068,6 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3317,8 +3270,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3729,7 +3682,7 @@
   <dimension ref="A1:AMK103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+      <selection activeCell="A103" sqref="A103:J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -6983,7 +6936,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14">
+    <row r="102" spans="1:10">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -6991,50 +6944,30 @@
         <v>182</v>
       </c>
       <c r="C102" s="1">
-        <v>90</v>
+        <v>84.9</v>
       </c>
       <c r="D102" s="1">
         <v>30</v>
       </c>
       <c r="E102" s="7">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>92.45</v>
       </c>
       <c r="F102" s="1">
         <f>273+D102</f>
         <v>303</v>
       </c>
-      <c r="I102" s="31" t="s">
+      <c r="I102" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J102" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="18">
-      <c r="A103" s="1">
-        <v>102</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C103" s="1">
-        <v>-24</v>
-      </c>
-      <c r="D103" s="1">
-        <v>20</v>
-      </c>
-      <c r="E103" s="7">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="F103" s="1">
-        <f>273+D103</f>
-        <v>293</v>
-      </c>
-      <c r="I103" s="30" t="s">
-        <v>187</v>
-      </c>
+    </row>
+    <row r="103" spans="1:10" ht="17">
+      <c r="B103" s="31"/>
+      <c r="E103" s="7"/>
+      <c r="I103" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15"/>
